--- a/Transporte_Premium.xlsx
+++ b/Transporte_Premium.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://campusuccedu-my.sharepoint.com/personal/jose_martinezlozan_campusucc_edu_co/Documents/Semestre_7/A_Ing_del_Software_y_Requerimie/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\OneDrive - Universidad Cooperativa de Colombia\Semestre_7\A_Ing_del_Software_y_Requerimie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D36105B2-B3CF-440D-A0C3-F8CA9D79FD7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="8_{D36105B2-B3CF-440D-A0C3-F8CA9D79FD7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{29F1A406-AD13-4570-839E-9970061DDB7F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="3045" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="128">
   <si>
     <t>1.0</t>
   </si>
@@ -210,9 +210,6 @@
     <t>Jose Manuel Martinez Lozano</t>
   </si>
   <si>
-    <t>Se pretende realizar una aplicación para una sociedad transportadora en Colombia, apuntando a la similitud en rapidez de un transporte aeréo, implementando las normativas de seguridad sanitaria por el COVID 19, para que los clientes tengan el menos contacto posible y que se evite más la propagación para realizar los viajes de forma segura.</t>
-  </si>
-  <si>
     <t>Transporte Terrestre  (Servicio Premium)</t>
   </si>
   <si>
@@ -273,9 +270,6 @@
     <t xml:space="preserve">El sistema debe permitir la creación de los usuarios </t>
   </si>
   <si>
-    <t>El sistema debe permitir la visualización de los ascientos disponibles de cada bus</t>
-  </si>
-  <si>
     <t xml:space="preserve">El sistema debe permitir el checkin de cada usuario que ingrese al bus </t>
   </si>
   <si>
@@ -355,13 +349,79 @@
   </si>
   <si>
     <t>Hasta ahora es una prueba</t>
+  </si>
+  <si>
+    <t>UR-025</t>
+  </si>
+  <si>
+    <t>UR-026</t>
+  </si>
+  <si>
+    <t>UR-027</t>
+  </si>
+  <si>
+    <t>UR-028</t>
+  </si>
+  <si>
+    <t>UR-029</t>
+  </si>
+  <si>
+    <t>UR-030</t>
+  </si>
+  <si>
+    <t>UR-031</t>
+  </si>
+  <si>
+    <t>UR-032</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir la elección a cada usuario de un transporte público por zona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El sistema debe permitir la compra de comestibles en el bus </t>
+  </si>
+  <si>
+    <t>El sistema debe previsualizar el inventario de cada bus</t>
+  </si>
+  <si>
+    <t>El eco-Nequi debe permitir registrar un usuario</t>
+  </si>
+  <si>
+    <t>El eco-Nequi debe permitir realizar compras</t>
+  </si>
+  <si>
+    <t>El eco-Nequi debe tener un colchón para guardar dinero</t>
+  </si>
+  <si>
+    <t>El eco-Nequi debe permitir visualizar las millas disponibles</t>
+  </si>
+  <si>
+    <t>El eco-Nequi debe permitir pagar servicios en el bus</t>
+  </si>
+  <si>
+    <t>El eco-Nequi debe ser recargable desde cualquier banco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El sistema debe permitir la opción de viajes aéreos o marítimos </t>
+  </si>
+  <si>
+    <t>UR-033</t>
+  </si>
+  <si>
+    <t>UR-034</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir la visualización de los asientos disponibles de cada bus</t>
+  </si>
+  <si>
+    <t>Se pretende realizar una aplicación para una sociedad transportadora en Colombia, apuntando a la similitud en rapidez de un transporte aéreo, implementando las normativas de seguridad sanitaria por el COVID 19, para que los clientes tengan el menos contacto posible y que se evite más la propagación para realizar los viajes de forma segura.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -381,6 +441,12 @@
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -404,7 +470,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -441,6 +507,10 @@
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1874,8 +1944,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A22:L54" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
-  <autoFilter ref="A22:L54" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A22:L68" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A22:L68" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="11"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Título" dataDxfId="10"/>
@@ -2262,7 +2332,7 @@
       </c>
       <c r="D9" s="4" t="str">
         <f>Requirements!D9</f>
-        <v>Se pretende realizar una aplicación para una sociedad transportadora en Colombia, apuntando a la similitud en rapidez de un transporte aeréo, implementando las normativas de seguridad sanitaria por el COVID 19, para que los clientes tengan el menos contacto posible y que se evite más la propagación para realizar los viajes de forma segura.</v>
+        <v>Se pretende realizar una aplicación para una sociedad transportadora en Colombia, apuntando a la similitud en rapidez de un transporte aéreo, implementando las normativas de seguridad sanitaria por el COVID 19, para que los clientes tengan el menos contacto posible y que se evite más la propagación para realizar los viajes de forma segura.</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2303,7 +2373,7 @@
       </c>
       <c r="C18">
         <f>COUNTA(Tabla1[ID])</f>
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -2317,7 +2387,7 @@
         <v>Funcional</v>
       </c>
       <c r="C20">
-        <f>COUNTIF(Requirements!$C$23:$C$54,Dashboard!B20)</f>
+        <f>COUNTIF(Requirements!$C$23:$C$68,Dashboard!B20)</f>
         <v>0</v>
       </c>
       <c r="D20" s="6"/>
@@ -2328,7 +2398,7 @@
         <v>Rendimiento</v>
       </c>
       <c r="C21">
-        <f>COUNTIF(Requirements!$C$23:$C$54,Dashboard!B21)</f>
+        <f>COUNTIF(Requirements!$C$23:$C$68,Dashboard!B21)</f>
         <v>0</v>
       </c>
       <c r="D21" s="6"/>
@@ -2339,7 +2409,7 @@
         <v>Usabilidad</v>
       </c>
       <c r="C22">
-        <f>COUNTIF(Requirements!$C$23:$C$54,Dashboard!B22)</f>
+        <f>COUNTIF(Requirements!$C$23:$C$68,Dashboard!B22)</f>
         <v>0</v>
       </c>
       <c r="D22" s="6"/>
@@ -2350,7 +2420,7 @@
         <v>Interfaz</v>
       </c>
       <c r="C23">
-        <f>COUNTIF(Requirements!$C$23:$C$54,Dashboard!B23)</f>
+        <f>COUNTIF(Requirements!$C$23:$C$68,Dashboard!B23)</f>
         <v>0</v>
       </c>
     </row>
@@ -2360,7 +2430,7 @@
         <v>Operativo</v>
       </c>
       <c r="C24">
-        <f>COUNTIF(Requirements!$C$23:$C$54,Dashboard!B24)</f>
+        <f>COUNTIF(Requirements!$C$23:$C$68,Dashboard!B24)</f>
         <v>0</v>
       </c>
     </row>
@@ -2370,7 +2440,7 @@
         <v>Estados y modos</v>
       </c>
       <c r="C25">
-        <f>COUNTIF(Requirements!$C$23:$C$54,Dashboard!B25)</f>
+        <f>COUNTIF(Requirements!$C$23:$C$68,Dashboard!B25)</f>
         <v>0</v>
       </c>
     </row>
@@ -2380,7 +2450,7 @@
         <v>Entorno</v>
       </c>
       <c r="C26">
-        <f>COUNTIF(Requirements!$C$23:$C$54,Dashboard!B26)</f>
+        <f>COUNTIF(Requirements!$C$23:$C$68,Dashboard!B26)</f>
         <v>0</v>
       </c>
     </row>
@@ -2390,7 +2460,7 @@
         <v>Adaptabilidad</v>
       </c>
       <c r="C27">
-        <f>COUNTIF(Requirements!$C$23:$C$54,Dashboard!B27)</f>
+        <f>COUNTIF(Requirements!$C$23:$C$68,Dashboard!B27)</f>
         <v>0</v>
       </c>
     </row>
@@ -2400,7 +2470,7 @@
         <v>Restricción</v>
       </c>
       <c r="C28">
-        <f>COUNTIF(Requirements!$C$23:$C$54,Dashboard!B28)</f>
+        <f>COUNTIF(Requirements!$C$23:$C$68,Dashboard!B28)</f>
         <v>0</v>
       </c>
     </row>
@@ -2410,7 +2480,7 @@
         <v>Negocio</v>
       </c>
       <c r="C29">
-        <f>COUNTIF(Requirements!$C$23:$C$54,Dashboard!B29)</f>
+        <f>COUNTIF(Requirements!$C$23:$C$68,Dashboard!B29)</f>
         <v>0</v>
       </c>
     </row>
@@ -2420,7 +2490,7 @@
         <v>Stakeholder</v>
       </c>
       <c r="C30">
-        <f>COUNTIF(Requirements!$C$23:$C$54,Dashboard!B30)</f>
+        <f>COUNTIF(Requirements!$C$23:$C$68,Dashboard!B30)</f>
         <v>0</v>
       </c>
     </row>
@@ -2430,7 +2500,7 @@
         <v>Transición</v>
       </c>
       <c r="C31">
-        <f>COUNTIF(Requirements!$C$23:$C$54,Dashboard!B31)</f>
+        <f>COUNTIF(Requirements!$C$23:$C$68,Dashboard!B31)</f>
         <v>0</v>
       </c>
     </row>
@@ -2445,7 +2515,7 @@
         <v>Nuevo</v>
       </c>
       <c r="C33">
-        <f>COUNTIF(Requirements!$J$23:$J$54,Dashboard!B33)</f>
+        <f>COUNTIF(Requirements!$J$23:$J$68,Dashboard!B33)</f>
         <v>0</v>
       </c>
     </row>
@@ -2455,7 +2525,7 @@
         <v>Verificado</v>
       </c>
       <c r="C34">
-        <f>COUNTIF(Requirements!$J$23:$J$54,Dashboard!B34)</f>
+        <f>COUNTIF(Requirements!$J$23:$J$68,Dashboard!B34)</f>
         <v>0</v>
       </c>
     </row>
@@ -2465,7 +2535,7 @@
         <v>Aprobado</v>
       </c>
       <c r="C35">
-        <f>COUNTIF(Requirements!$J$23:$J$54,Dashboard!B35)</f>
+        <f>COUNTIF(Requirements!$J$23:$J$68,Dashboard!B35)</f>
         <v>0</v>
       </c>
     </row>
@@ -2475,7 +2545,7 @@
         <v>Rechazado</v>
       </c>
       <c r="C36">
-        <f>COUNTIF(Requirements!$J$23:$J$54,Dashboard!B36)</f>
+        <f>COUNTIF(Requirements!$J$23:$J$68,Dashboard!B36)</f>
         <v>0</v>
       </c>
     </row>
@@ -2485,7 +2555,7 @@
         <v>Aplazado</v>
       </c>
       <c r="C37">
-        <f>COUNTIF(Requirements!$J$23:$J$54,Dashboard!B37)</f>
+        <f>COUNTIF(Requirements!$J$23:$J$68,Dashboard!B37)</f>
         <v>0</v>
       </c>
     </row>
@@ -2495,7 +2565,7 @@
         <v>En desarrollo</v>
       </c>
       <c r="C38">
-        <f>COUNTIF(Requirements!$J$23:$J$54,Dashboard!B38)</f>
+        <f>COUNTIF(Requirements!$J$23:$J$68,Dashboard!B38)</f>
         <v>0</v>
       </c>
     </row>
@@ -2505,7 +2575,7 @@
         <v>Completado</v>
       </c>
       <c r="C39">
-        <f>COUNTIF(Requirements!$J$23:$J$54,Dashboard!B39)</f>
+        <f>COUNTIF(Requirements!$J$23:$J$68,Dashboard!B39)</f>
         <v>0</v>
       </c>
     </row>
@@ -2515,7 +2585,7 @@
         <v>Testeado</v>
       </c>
       <c r="C40">
-        <f>COUNTIF(Requirements!$J$23:$J$54,Dashboard!B40)</f>
+        <f>COUNTIF(Requirements!$J$23:$J$68,Dashboard!B40)</f>
         <v>0</v>
       </c>
     </row>
@@ -2529,10 +2599,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Hoja2"/>
-  <dimension ref="A1:Q54"/>
+  <dimension ref="A1:Q68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2647,7 +2717,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>25</v>
@@ -2675,7 +2745,7 @@
         <v>42</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>59</v>
+        <v>127</v>
       </c>
       <c r="P9" t="s">
         <v>27</v>
@@ -2689,7 +2759,7 @@
         <v>43</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="Q10" t="s">
         <v>44</v>
@@ -2709,7 +2779,7 @@
         <v>46</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q12" t="s">
         <v>2</v>
@@ -2805,7 +2875,7 @@
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
@@ -2823,7 +2893,7 @@
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7" t="s">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
@@ -2841,7 +2911,7 @@
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
@@ -2854,12 +2924,12 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
@@ -2872,12 +2942,12 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
@@ -2890,12 +2960,12 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
@@ -2908,12 +2978,12 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
@@ -2926,12 +2996,12 @@
     </row>
     <row r="30" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
@@ -2944,12 +3014,12 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
@@ -2962,12 +3032,12 @@
     </row>
     <row r="32" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
@@ -2980,12 +3050,12 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B33" s="11"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
@@ -2998,12 +3068,12 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
@@ -3016,12 +3086,12 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B35" s="11"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
@@ -3034,12 +3104,12 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
@@ -3052,12 +3122,12 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
@@ -3070,12 +3140,12 @@
     </row>
     <row r="38" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B38" s="11"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
@@ -3088,12 +3158,12 @@
     </row>
     <row r="39" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
       <c r="D39" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
@@ -3106,12 +3176,12 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
       <c r="D40" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
@@ -3124,12 +3194,12 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
       <c r="D41" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
@@ -3142,12 +3212,12 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
@@ -3160,12 +3230,12 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
@@ -3178,12 +3248,12 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
       <c r="D44" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
@@ -3196,12 +3266,12 @@
     </row>
     <row r="45" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
       <c r="D45" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
@@ -3214,12 +3284,12 @@
     </row>
     <row r="46" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
       <c r="D46" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
@@ -3231,10 +3301,14 @@
       <c r="L46" s="7"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="7"/>
+      <c r="A47" s="7" t="s">
+        <v>106</v>
+      </c>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
+      <c r="D47" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
@@ -3245,10 +3319,14 @@
       <c r="L47" s="7"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="7"/>
+      <c r="A48" s="7" t="s">
+        <v>107</v>
+      </c>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
+      <c r="D48" s="7" t="s">
+        <v>115</v>
+      </c>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
@@ -3259,10 +3337,14 @@
       <c r="L48" s="7"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="7"/>
+      <c r="A49" s="7" t="s">
+        <v>108</v>
+      </c>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
+      <c r="D49" s="7" t="s">
+        <v>116</v>
+      </c>
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
@@ -3273,10 +3355,14 @@
       <c r="L49" s="7"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="7"/>
+      <c r="A50" s="7" t="s">
+        <v>109</v>
+      </c>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
+      <c r="D50" s="7" t="s">
+        <v>117</v>
+      </c>
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
@@ -3287,10 +3373,14 @@
       <c r="L50" s="7"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="7"/>
+      <c r="A51" s="7" t="s">
+        <v>110</v>
+      </c>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
+      <c r="D51" s="7" t="s">
+        <v>118</v>
+      </c>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
@@ -3301,10 +3391,14 @@
       <c r="L51" s="7"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="7"/>
+      <c r="A52" s="7" t="s">
+        <v>111</v>
+      </c>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
+      <c r="D52" s="7" t="s">
+        <v>119</v>
+      </c>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
@@ -3315,10 +3409,14 @@
       <c r="L52" s="7"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="7"/>
+      <c r="A53" s="7" t="s">
+        <v>112</v>
+      </c>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
+      <c r="D53" s="7" t="s">
+        <v>120</v>
+      </c>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
@@ -3329,10 +3427,14 @@
       <c r="L53" s="7"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="7"/>
+      <c r="A54" s="7" t="s">
+        <v>113</v>
+      </c>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
+      <c r="D54" s="7" t="s">
+        <v>121</v>
+      </c>
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
@@ -3342,6 +3444,210 @@
       <c r="K54" s="7"/>
       <c r="L54" s="7"/>
     </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="14"/>
+      <c r="J55" s="14"/>
+      <c r="K55" s="14"/>
+      <c r="L55" s="14"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="14"/>
+      <c r="J56" s="14"/>
+      <c r="K56" s="14"/>
+      <c r="L56" s="14"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="14"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="14"/>
+      <c r="J57" s="14"/>
+      <c r="K57" s="14"/>
+      <c r="L57" s="14"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="14"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="14"/>
+      <c r="I58" s="14"/>
+      <c r="J58" s="14"/>
+      <c r="K58" s="14"/>
+      <c r="L58" s="14"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="14"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="14"/>
+      <c r="H59" s="14"/>
+      <c r="I59" s="14"/>
+      <c r="J59" s="14"/>
+      <c r="K59" s="14"/>
+      <c r="L59" s="14"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="14"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="14"/>
+      <c r="H60" s="14"/>
+      <c r="I60" s="14"/>
+      <c r="J60" s="14"/>
+      <c r="K60" s="14"/>
+      <c r="L60" s="14"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="14"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="14"/>
+      <c r="H61" s="14"/>
+      <c r="I61" s="14"/>
+      <c r="J61" s="14"/>
+      <c r="K61" s="14"/>
+      <c r="L61" s="14"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="14"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="14"/>
+      <c r="H62" s="14"/>
+      <c r="I62" s="14"/>
+      <c r="J62" s="14"/>
+      <c r="K62" s="14"/>
+      <c r="L62" s="14"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="14"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="14"/>
+      <c r="H63" s="14"/>
+      <c r="I63" s="14"/>
+      <c r="J63" s="14"/>
+      <c r="K63" s="14"/>
+      <c r="L63" s="14"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="14"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="14"/>
+      <c r="H64" s="14"/>
+      <c r="I64" s="14"/>
+      <c r="J64" s="14"/>
+      <c r="K64" s="14"/>
+      <c r="L64" s="14"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="14"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="14"/>
+      <c r="H65" s="14"/>
+      <c r="I65" s="14"/>
+      <c r="J65" s="14"/>
+      <c r="K65" s="14"/>
+      <c r="L65" s="14"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="14"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="14"/>
+      <c r="H66" s="14"/>
+      <c r="I66" s="14"/>
+      <c r="J66" s="14"/>
+      <c r="K66" s="14"/>
+      <c r="L66" s="14"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="14"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c r="G67" s="14"/>
+      <c r="H67" s="14"/>
+      <c r="I67" s="14"/>
+      <c r="J67" s="14"/>
+      <c r="K67" s="14"/>
+      <c r="L67" s="14"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="14"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="14"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="14"/>
+      <c r="J68" s="14"/>
+      <c r="K68" s="14"/>
+      <c r="L68" s="14"/>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3349,7 +3655,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K24:L54 K23" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$O$2:$O$6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J23:J54" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J23:J68" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>$P$2:$P$9</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C55:C1048576" xr:uid="{00000000-0002-0000-0100-000002000000}">
